--- a/public/data/lime/lime_table_south_sudan.xlsx
+++ b/public/data/lime/lime_table_south_sudan.xlsx
@@ -1363,16 +1363,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.55</v>
+        <v>1.94</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13</v>
+        <v>0.55</v>
       </c>
       <c r="L2" t="n">
-        <v>0.37</v>
+        <v>0.08</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.52</v>
+        <v>3.79</v>
       </c>
       <c r="K3" t="n">
-        <v>2.71</v>
+        <v>1.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>0.18</v>
       </c>
       <c r="M3" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1439,13 +1439,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>9.89</v>
+        <v>9.46</v>
       </c>
       <c r="E4" t="n">
-        <v>8.43</v>
+        <v>7.5</v>
       </c>
       <c r="F4" t="n">
-        <v>6.72</v>
+        <v>5.21</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1457,16 +1457,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.25</v>
+        <v>3.59</v>
       </c>
       <c r="K4" t="n">
-        <v>2.67</v>
+        <v>1.59</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>0.46</v>
       </c>
       <c r="M4" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.89</v>
+        <v>0.57</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>93</v>
       </c>
       <c r="D6" t="n">
-        <v>5.43</v>
+        <v>4.66</v>
       </c>
       <c r="E6" t="n">
-        <v>2.91</v>
+        <v>1.95</v>
       </c>
       <c r="F6" t="n">
-        <v>1.12</v>
+        <v>0.34</v>
       </c>
       <c r="G6" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1551,16 +1551,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.13</v>
+        <v>2.09</v>
       </c>
       <c r="K6" t="n">
-        <v>0.93</v>
+        <v>0.36</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1645,16 +1645,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.76</v>
+        <v>2.8</v>
       </c>
       <c r="K8" t="n">
-        <v>1.5</v>
+        <v>0.49</v>
       </c>
       <c r="L8" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.62</v>
+        <v>0.53</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1721,16 +1721,16 @@
         <v>98</v>
       </c>
       <c r="D10" t="n">
-        <v>4.92</v>
+        <v>0.27</v>
       </c>
       <c r="E10" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5.9</v>
+        <v>1.34</v>
       </c>
       <c r="K10" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>99</v>
       </c>
       <c r="D11" t="n">
-        <v>3.87</v>
+        <v>0.08</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1786,16 +1786,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>7.82</v>
+        <v>2.44</v>
       </c>
       <c r="K11" t="n">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>4.44</v>
+        <v>0.18</v>
       </c>
       <c r="E12" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1833,16 +1833,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>5.82</v>
+        <v>1.34</v>
       </c>
       <c r="K12" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>5.9</v>
+        <v>0.99</v>
       </c>
       <c r="K13" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.78</v>
+        <v>0.27</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2068,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.11</v>
+        <v>0.05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2115,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.52</v>
+        <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2209,16 +2209,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7.05</v>
+        <v>2.24</v>
       </c>
       <c r="K20" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>112</v>
       </c>
       <c r="D22" t="n">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.89</v>
+        <v>0.55</v>
       </c>
       <c r="K22" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2426,16 +2426,16 @@
         <v>116</v>
       </c>
       <c r="D25" t="n">
-        <v>5.85</v>
+        <v>0.39</v>
       </c>
       <c r="E25" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.53</v>
+        <v>1.37</v>
       </c>
       <c r="K25" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.36</v>
+        <v>2.59</v>
       </c>
       <c r="K27" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>9.46</v>
+        <v>0.95</v>
       </c>
       <c r="K37" t="n">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3102,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.72</v>
+        <v>0.39</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.95</v>
+        <v>0.27</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3178,16 +3178,16 @@
         <v>135</v>
       </c>
       <c r="D41" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="E41" t="n">
-        <v>1.03</v>
+        <v>0.57</v>
       </c>
       <c r="F41" t="n">
-        <v>0.43</v>
+        <v>0.06</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.38</v>
+        <v>1.99</v>
       </c>
       <c r="K41" t="n">
-        <v>1.38</v>
+        <v>0.81</v>
       </c>
       <c r="L41" t="n">
-        <v>0.59</v>
+        <v>0.14</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="K42" t="n">
-        <v>0.87</v>
+        <v>0.3</v>
       </c>
       <c r="L42" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3290,16 +3290,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.8</v>
+        <v>3.23</v>
       </c>
       <c r="K43" t="n">
-        <v>2.25</v>
+        <v>1.26</v>
       </c>
       <c r="L43" t="n">
-        <v>0.88</v>
+        <v>0.19</v>
       </c>
       <c r="M43" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3337,16 +3337,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.01</v>
+        <v>2.52</v>
       </c>
       <c r="K44" t="n">
-        <v>1.68</v>
+        <v>0.99</v>
       </c>
       <c r="L44" t="n">
-        <v>0.69</v>
+        <v>0.22</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -3366,13 +3366,13 @@
         <v>140</v>
       </c>
       <c r="D45" t="n">
-        <v>4.95</v>
+        <v>4.6</v>
       </c>
       <c r="E45" t="n">
-        <v>3.84</v>
+        <v>3.11</v>
       </c>
       <c r="F45" t="n">
-        <v>2.56</v>
+        <v>1.36</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -3384,16 +3384,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.22</v>
+        <v>2.66</v>
       </c>
       <c r="K45" t="n">
-        <v>1.77</v>
+        <v>0.9</v>
       </c>
       <c r="L45" t="n">
-        <v>0.63</v>
+        <v>0.09</v>
       </c>
       <c r="M45" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -3413,13 +3413,13 @@
         <v>141</v>
       </c>
       <c r="D46" t="n">
-        <v>3.64</v>
+        <v>3.21</v>
       </c>
       <c r="E46" t="n">
-        <v>2.35</v>
+        <v>1.42</v>
       </c>
       <c r="F46" t="n">
-        <v>0.88</v>
+        <v>0.06</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.23</v>
+        <v>2.72</v>
       </c>
       <c r="K46" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="L46" t="n">
-        <v>0.67</v>
+        <v>0.12</v>
       </c>
       <c r="M46" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
